--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,12 +49,12 @@
     <t>returned</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -76,10 +76,13 @@
     <t>broken</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
@@ -97,27 +100,27 @@
     <t>item</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
+    <t>better</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -139,9 +142,6 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -151,10 +151,13 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
   </si>
   <si>
     <t>fun</t>
@@ -521,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>0.875</v>
@@ -661,16 +664,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>0.8</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8157894736842105</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.6344086021505376</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="L5">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="M5">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7669902912621359</v>
+        <v>0.78125</v>
       </c>
       <c r="C6">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.6226415094339622</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.7572815533980582</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.546875</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7096774193548387</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.4202898550724637</v>
+        <v>0.3565573770491803</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>435</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>435</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>40</v>
+        <v>785</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.704225352112676</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.3508196721311476</v>
+        <v>0.3113342898134864</v>
       </c>
       <c r="L9">
-        <v>428</v>
+        <v>217</v>
       </c>
       <c r="M9">
-        <v>428</v>
+        <v>217</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>792</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6621621621621622</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C10">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.3113342898134864</v>
+        <v>0.2448132780082987</v>
       </c>
       <c r="L10">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="M10">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>480</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6302521008403361</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C11">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1008,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.2510373443983402</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="L11">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>361</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1040,13 +1043,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5454545454545454</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1058,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.1987767584097859</v>
+        <v>0.2228915662650602</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1082,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>262</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1090,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4869565217391305</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C13">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D13">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1108,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.1867469879518072</v>
+        <v>0.1957186544342508</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1132,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>135</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1140,13 +1143,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4337349397590362</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1158,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.08063102541630149</v>
+        <v>0.07887817703768624</v>
       </c>
       <c r="L14">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M14">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1190,13 +1193,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4210526315789473</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1208,31 +1211,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.03378817413905133</v>
+        <v>0.03376623376623376</v>
       </c>
       <c r="L15">
         <v>52</v>
       </c>
       <c r="M15">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N15">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1240,13 +1243,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3937007874015748</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1258,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1266,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3125</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C17">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1284,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>88</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1292,13 +1295,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.297029702970297</v>
+        <v>0.3125</v>
       </c>
       <c r="C18">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1310,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>142</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1318,13 +1321,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2843601895734597</v>
+        <v>0.3118811881188119</v>
       </c>
       <c r="C19">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D19">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1336,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1344,13 +1347,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2628865979381443</v>
+        <v>0.2843601895734597</v>
       </c>
       <c r="C20">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D20">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1362,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1370,13 +1373,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1847826086956522</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C21">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1388,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>225</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1396,13 +1399,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1750741839762611</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C22">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="D22">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1414,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>556</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1422,13 +1425,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1708860759493671</v>
+        <v>0.180379746835443</v>
       </c>
       <c r="C23">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D23">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1440,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1448,13 +1451,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1497797356828194</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C24">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D24">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1466,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>386</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1474,13 +1477,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.129746835443038</v>
+        <v>0.1750741839762611</v>
       </c>
       <c r="C25">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="D25">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1492,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>275</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1500,13 +1503,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.117816091954023</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="C26">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D26">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1518,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>307</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1526,13 +1529,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.09315068493150686</v>
+        <v>0.1277533039647577</v>
       </c>
       <c r="C27">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1544,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>331</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1552,25 +1555,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06696428571428571</v>
+        <v>0.1235632183908046</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E28">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>418</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1578,25 +1581,51 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.05271828665568369</v>
+        <v>0.1013698630136986</v>
       </c>
       <c r="C29">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E29">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>575</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.0625</v>
+      </c>
+      <c r="C30">
+        <v>38</v>
+      </c>
+      <c r="D30">
+        <v>38</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>570</v>
       </c>
     </row>
   </sheetData>
